--- a/medicine/Psychotrope/Bouchon_mécanique/Bouchon_mécanique.xlsx
+++ b/medicine/Psychotrope/Bouchon_mécanique/Bouchon_mécanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouchon_m%C3%A9canique</t>
+          <t>Bouchon_mécanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bouchon mécanique, également appelé bouchon à étrier ou bouchon à bascule, ou encore bouchon à muselière, est un bouchon attaché mécaniquement au goulot des bouteilles et canettes en verre, ainsi que certaines gourdes. Les bouteilles qui en sont munies peuvent accomplir plusieurs cycles de commercialisation de leur contenu après remplissage et, au besoin, reétiquettage ; sa fermeture est seulement vérifiée, la solidité de l'ensemble étant ordinairement prévue pour un usage durable. Les bouchons mécaniques ont été longtemps utilisés pour des bouteilles consignées qui devaient être à la fois facilement et hermétiquement fermées et refermées alors que les bouchons en liège ou en plastique ne satisfaisaient pas simultanément ces conditions.
 Ce système qui équipe habituellement les bouteilles contenant des boissons gazeuses (limonade, sodas, bières,) est de plus en plus remplacé par les bouchons à vis des bouteilles en verre perdu.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouchon_m%C3%A9canique</t>
+          <t>Bouchon_mécanique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bouchon mécanique est constitué de :
 deux parties en fil de fer, pliées et réunies en une pièce articulée : l'attache destinée au bouchon proprement dit et le levier pour l'ouverture-fermeture ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bouchon_m%C3%A9canique</t>
+          <t>Bouchon_mécanique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bouchon mécanique fait l’objet d’un brevet aux États-Unis le 5 janvier 1875[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bouchon mécanique fait l’objet d’un brevet aux États-Unis le 5 janvier 1875.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bouchon_m%C3%A9canique</t>
+          <t>Bouchon_mécanique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Dispositifs analogues</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains bocaux en verre sont également équipés d'un système d'attache par fil de fer en étrier, mais on parle plus communément de couvercle de bocal. Le couvercle en verre du bocal est pourvu d'une gorge recevant un fil de fer comportant une pliure, en bec d'un côté, en charnière de l'autre. La charnière est reliée à un autre fil qui enserre le col du bocal et comprend une attache à levier articulée. Cette attache est destinée à agripper le bec du couvercle et à le rabattre vers l'orifice.
 C'est sur ce principe qu'ont été installés des bouchons à étrier de réservoirs de motocyclette.
